--- a/output2/《金鋼經》002.xlsx
+++ b/output2/《金鋼經》002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Piau-Im\output2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AB6F68D-6147-4945-AEE8-11C6B7CBD582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739DDA57-E2A0-41E1-9E73-DC71F98B4450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{33AB2257-ECDF-4521-8F0E-4FD5B627422C}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="543">
   <si>
     <t>【台羅拼音】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1288,11 +1288,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔ziok⁴〕
-【ㄐㄧㆦ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔zo⁷〕
 【ㄗㄜ˫】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1454,9 +1449,6 @@
   </si>
   <si>
     <t>ziok⁴</t>
-  </si>
-  <si>
-    <t>ㄐㄧㆦ</t>
   </si>
   <si>
     <t>zo⁷</t>
@@ -1822,11 +1814,6 @@
 【ㄍㄧㄥˉ】</t>
   </si>
   <si>
-    <t>〔ciek⁴〕
-【ㄑㄧㆤ】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔hap⁸〕
 【ㄏㄚㆴ˙】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1976,11 +1963,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔hok⁸〕
-【ㄏㆦ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔zai¹〕
 【ㄗㄞˉ】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2035,11 +2017,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>〔lok⁸〕
-【ㄌㆦ˙】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>〔beh⁴〕
 【ㆠㆤㆷ】</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2158,9 +2135,6 @@
     <t>ciek⁴</t>
   </si>
   <si>
-    <t>ㄑㄧㆤ</t>
-  </si>
-  <si>
     <t>hap⁸</t>
   </si>
   <si>
@@ -2332,9 +2306,6 @@
     <t>hok⁸</t>
   </si>
   <si>
-    <t>ㄏㆦ˙</t>
-  </si>
-  <si>
     <t>zai¹</t>
   </si>
   <si>
@@ -2398,24 +2369,118 @@
     <t>lok⁸</t>
   </si>
   <si>
-    <t>ㄌㆦ˙</t>
-  </si>
-  <si>
     <t>beh⁴</t>
   </si>
   <si>
     <t>ㆠㆤㆷ</t>
   </si>
   <si>
-    <t>《金剛般若波羅蜜經》善現啟請分第二</t>
+    <t></t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t></t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>〔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黒体-繁"/>
+        <family val="2"/>
+      </rPr>
+      <t>kok</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="黒体-繁"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>⁴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei UI"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>〕【</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+      </rPr>
+      <t>ㄍ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color theme="1"/>
+        <rFont val="Microsoft JhengHei"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ㆦ】</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金剛般若波羅蜜經。善現啟請分第二</t>
     <phoneticPr fontId="58" type="noConversion"/>
+  </si>
+  <si>
+    <t>〔ciek⁴〕
+【ㄑㄧㆤㆻ】</t>
+  </si>
+  <si>
+    <t>ㄑㄧㆤㆻ</t>
+  </si>
+  <si>
+    <t>〔ziok⁴〕
+【ㄐㄧㆦㆻ】</t>
+  </si>
+  <si>
+    <t>ㄐㄧㆦㆻ</t>
+  </si>
+  <si>
+    <t>〔hok⁸〕
+【ㄏㆦㆻ˙】</t>
+  </si>
+  <si>
+    <t>ㄏㆦㆻ˙</t>
+  </si>
+  <si>
+    <t>〔lok⁸〕
+【ㄌㆦㆻ˙】</t>
+  </si>
+  <si>
+    <t>ㄌㆦㆻ˙</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="78">
+  <fonts count="87">
     <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
@@ -2900,13 +2965,6 @@
       <name val="Sitka Text Semibold"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="吳守禮細明台語注音"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="MS UI Gothic"/>
@@ -2959,6 +3017,76 @@
       <color theme="0"/>
       <name val="Microsoft JhengHei UI"/>
       <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Noto Serif TC Medium"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei UI"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Microsoft JhengHei"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="全字庫正宋體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="黒体-繁"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="霞鶩文楷 TC"/>
+      <family val="1"/>
       <charset val="136"/>
     </font>
   </fonts>
@@ -3161,7 +3289,7 @@
     </xf>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3454,40 +3582,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" shrinkToFit="1" readingOrder="1"/>
@@ -3501,6 +3608,45 @@
     </xf>
     <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3509,7 +3655,7 @@
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
     <cellStyle name="超連結 2" xfId="2" xr:uid="{AF644068-9C78-42CD-96C0-AD9C8A3B8BDE}"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="26">
     <dxf>
       <font>
         <b/>
@@ -3533,68 +3679,6 @@
           <bgColor rgb="FFFFFFCC"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FFFF0000"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -4398,10 +4482,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="B1:C7"/>
+  <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="25.5"/>
@@ -4412,23 +4496,33 @@
     <col min="4" max="16384" width="12" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="2:7" ht="33">
       <c r="B1" s="61" t="s">
         <v>160</v>
       </c>
       <c r="C1" s="61" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="2" spans="2:3">
+      <c r="E1" s="115" t="s">
+        <v>531</v>
+      </c>
+      <c r="F1" s="114" t="str">
+        <f xml:space="preserve"> DEC2HEX( _xlfn.UNICODE(E1) )</f>
+        <v>F8D2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7">
       <c r="B2" s="62" t="s">
         <v>162</v>
       </c>
       <c r="C2" s="62" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="3" spans="2:3">
+      <c r="E2" s="116" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
       <c r="B3" s="62" t="s">
         <v>164</v>
       </c>
@@ -4436,15 +4530,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:7">
       <c r="B4" s="62" t="s">
         <v>166</v>
       </c>
       <c r="C4" s="63" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
       <c r="B5" s="62" t="s">
         <v>167</v>
       </c>
@@ -4452,12 +4546,241 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:7">
       <c r="B7" s="76" t="s">
         <v>159</v>
       </c>
-      <c r="C7" s="100" t="b">
+      <c r="C7" s="99" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="C9" s="117" t="s">
+        <v>533</v>
+      </c>
+      <c r="D9" s="62">
+        <v>1</v>
+      </c>
+      <c r="E9" s="62" t="str">
+        <f xml:space="preserve"> MID($C$9, D9, 1)</f>
+        <v>〔</v>
+      </c>
+      <c r="F9" s="62" t="str">
+        <f t="shared" ref="F9:F17" si="0" xml:space="preserve"> DEC2HEX(_xlfn.UNICODE(E9))</f>
+        <v>3014</v>
+      </c>
+      <c r="G9" s="118" t="str">
+        <f t="shared" ref="G9:G17" si="1" xml:space="preserve"> _xlfn.UNICHAR( HEX2DEC(F9) )</f>
+        <v>〔</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="D10" s="62">
+        <v>2</v>
+      </c>
+      <c r="E10" s="62" t="str">
+        <f t="shared" ref="E10:E13" si="2" xml:space="preserve"> MID($C$9, D10, 1)</f>
+        <v>k</v>
+      </c>
+      <c r="F10" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>6B</v>
+      </c>
+      <c r="G10" s="118" t="str">
+        <f t="shared" si="1"/>
+        <v>k</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="D11" s="62">
+        <v>3</v>
+      </c>
+      <c r="E11" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>o</v>
+      </c>
+      <c r="F11" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>6F</v>
+      </c>
+      <c r="G11" s="118" t="str">
+        <f t="shared" si="1"/>
+        <v>o</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="D12" s="62">
+        <v>4</v>
+      </c>
+      <c r="E12" s="62" t="str">
+        <f xml:space="preserve"> MID($C$9, D12, 1)</f>
+        <v>k</v>
+      </c>
+      <c r="F12" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>6B</v>
+      </c>
+      <c r="G12" s="118" t="str">
+        <f t="shared" si="1"/>
+        <v>k</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="D13" s="62">
+        <v>5</v>
+      </c>
+      <c r="E13" s="62" t="str">
+        <f t="shared" si="2"/>
+        <v>⁴</v>
+      </c>
+      <c r="F13" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>2074</v>
+      </c>
+      <c r="G13" s="118" t="str">
+        <f t="shared" si="1"/>
+        <v>⁴</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="D14" s="62">
+        <v>6</v>
+      </c>
+      <c r="E14" s="62" t="str">
+        <f xml:space="preserve"> MID($C$9, D14, 1)</f>
+        <v>〕</v>
+      </c>
+      <c r="F14" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>3015</v>
+      </c>
+      <c r="G14" s="118" t="str">
+        <f t="shared" si="1"/>
+        <v>〕</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="D15" s="62">
+        <v>7</v>
+      </c>
+      <c r="E15" s="62" t="str">
+        <f xml:space="preserve"> MID($C$9, D15, 1)</f>
+        <v>【</v>
+      </c>
+      <c r="F15" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>3010</v>
+      </c>
+      <c r="G15" s="118" t="str">
+        <f t="shared" si="1"/>
+        <v>【</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="D16" s="62">
+        <v>8</v>
+      </c>
+      <c r="E16" s="62" t="str">
+        <f xml:space="preserve"> MID($C$9, D16, 1)</f>
+        <v>ㄍ</v>
+      </c>
+      <c r="F16" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>310D</v>
+      </c>
+      <c r="G16" s="118" t="str">
+        <f t="shared" si="1"/>
+        <v>ㄍ</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7">
+      <c r="D17" s="62">
+        <v>9</v>
+      </c>
+      <c r="E17" s="62" t="str">
+        <f xml:space="preserve"> MID($C$9, D17, 1)</f>
+        <v>ㆦ</v>
+      </c>
+      <c r="F17" s="62" t="str">
+        <f t="shared" si="0"/>
+        <v>31A6</v>
+      </c>
+      <c r="G17" s="118" t="str">
+        <f t="shared" si="1"/>
+        <v>ㆦ</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7">
+      <c r="D18" s="62">
+        <v>10</v>
+      </c>
+      <c r="E18" s="62" t="str">
+        <f t="shared" ref="E18:E19" si="3" xml:space="preserve"> MID($C$9, D18, 1)</f>
+        <v></v>
+      </c>
+      <c r="F18" s="62" t="str">
+        <f xml:space="preserve"> DEC2HEX(_xlfn.UNICODE(E18))</f>
+        <v>F8D2</v>
+      </c>
+      <c r="G18" s="118" t="str">
+        <f xml:space="preserve"> _xlfn.UNICHAR( HEX2DEC(F18) )</f>
+        <v></v>
+      </c>
+    </row>
+    <row r="19" spans="4:7">
+      <c r="D19" s="62">
+        <v>11</v>
+      </c>
+      <c r="E19" s="62" t="str">
+        <f t="shared" si="3"/>
+        <v>】</v>
+      </c>
+      <c r="F19" s="62" t="str">
+        <f xml:space="preserve"> DEC2HEX(_xlfn.UNICODE(E19))</f>
+        <v>3011</v>
+      </c>
+      <c r="G19" s="119" t="str">
+        <f t="shared" ref="G19:G20" si="4" xml:space="preserve"> _xlfn.UNICHAR( HEX2DEC(F19) )</f>
+        <v>】</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7">
+      <c r="G20" s="118"/>
+    </row>
+    <row r="25" spans="4:7">
+      <c r="D25" s="62">
+        <v>17</v>
+      </c>
+      <c r="E25" s="62" t="str">
+        <f t="shared" ref="E20:E28" si="5" xml:space="preserve"> MID($C$9, D25, 1)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="4:7">
+      <c r="D26" s="62">
+        <v>18</v>
+      </c>
+      <c r="E26" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="4:7">
+      <c r="D27" s="62">
+        <v>19</v>
+      </c>
+      <c r="E27" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="4:7">
+      <c r="D28" s="62">
+        <v>20</v>
+      </c>
+      <c r="E28" s="62" t="str">
+        <f t="shared" si="5"/>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -4478,8 +4801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8C53779-CCF8-43BA-AEFF-2336C12771BD}">
   <dimension ref="A2:V62"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3:V13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C45" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39"/>
@@ -4567,28 +4890,28 @@
       <c r="C3" s="80"/>
       <c r="D3" s="81"/>
       <c r="E3" s="81" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F3" s="81" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G3" s="81" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H3" s="81" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I3" s="81" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="J3" s="81" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="K3" s="81" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="L3" s="81" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M3" s="81"/>
       <c r="N3" s="81"/>
@@ -4598,36 +4921,36 @@
       <c r="R3" s="81"/>
       <c r="S3" s="78"/>
       <c r="T3" s="74"/>
-      <c r="V3" s="105" t="s">
-        <v>290</v>
+      <c r="V3" s="108" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B4" s="65"/>
       <c r="D4" s="98"/>
       <c r="E4" s="98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G4" s="98" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H4" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I4" s="98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J4" s="98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K4" s="98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L4" s="98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="M4" s="98"/>
       <c r="N4" s="98"/>
@@ -4636,7 +4959,7 @@
       <c r="Q4" s="98"/>
       <c r="R4" s="98"/>
       <c r="S4" s="53"/>
-      <c r="V4" s="106"/>
+      <c r="V4" s="109"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B5" s="66">
@@ -4678,59 +5001,59 @@
       <c r="Q5" s="75"/>
       <c r="R5" s="75"/>
       <c r="S5" s="54"/>
-      <c r="V5" s="106"/>
+      <c r="V5" s="109"/>
     </row>
     <row r="6" spans="2:22" s="50" customFormat="1" ht="36" customHeight="1">
       <c r="B6" s="67"/>
       <c r="C6" s="51"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="F6" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="G6" s="99" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="99" t="s">
-        <v>231</v>
-      </c>
-      <c r="I6" s="99" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="K6" s="99" t="s">
-        <v>237</v>
-      </c>
-      <c r="L6" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="M6" s="99"/>
-      <c r="N6" s="99"/>
-      <c r="O6" s="99"/>
-      <c r="P6" s="99"/>
-      <c r="Q6" s="99"/>
-      <c r="R6" s="99"/>
+      <c r="D6" s="120"/>
+      <c r="E6" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="120" t="s">
+        <v>226</v>
+      </c>
+      <c r="G6" s="120" t="s">
+        <v>228</v>
+      </c>
+      <c r="H6" s="120" t="s">
+        <v>230</v>
+      </c>
+      <c r="I6" s="120" t="s">
+        <v>232</v>
+      </c>
+      <c r="J6" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="K6" s="120" t="s">
+        <v>236</v>
+      </c>
+      <c r="L6" s="120" t="s">
+        <v>238</v>
+      </c>
+      <c r="M6" s="120"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="120"/>
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120"/>
+      <c r="R6" s="120"/>
       <c r="S6" s="55"/>
-      <c r="V6" s="106"/>
+      <c r="V6" s="109"/>
     </row>
     <row r="7" spans="2:22" s="49" customFormat="1" ht="60" customHeight="1">
       <c r="B7" s="64"/>
       <c r="C7" s="56"/>
       <c r="D7" s="83" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="83" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" s="83" t="s">
         <v>359</v>
       </c>
-      <c r="E7" s="83" t="s">
+      <c r="G7" s="83" t="s">
         <v>360</v>
-      </c>
-      <c r="F7" s="83" t="s">
-        <v>361</v>
-      </c>
-      <c r="G7" s="83" t="s">
-        <v>362</v>
       </c>
       <c r="H7" s="83" t="s">
         <v>204</v>
@@ -4750,31 +5073,31 @@
       <c r="Q7" s="77"/>
       <c r="R7" s="77"/>
       <c r="S7" s="57"/>
-      <c r="V7" s="106"/>
+      <c r="V7" s="109"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B8" s="65"/>
       <c r="C8" s="52"/>
       <c r="D8" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E8" s="98" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F8" s="98" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G8" s="98" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H8" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I8" s="98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J8" s="98" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="K8" s="98"/>
       <c r="L8" s="98"/>
@@ -4785,7 +5108,7 @@
       <c r="Q8" s="98"/>
       <c r="R8" s="98"/>
       <c r="S8" s="53"/>
-      <c r="V8" s="106"/>
+      <c r="V8" s="109"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B9" s="66">
@@ -4794,16 +5117,16 @@
       </c>
       <c r="C9" s="52"/>
       <c r="D9" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="E9" s="75" t="s">
+        <v>290</v>
+      </c>
+      <c r="F9" s="75" t="s">
         <v>291</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="G9" s="75" t="s">
         <v>292</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>293</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>294</v>
       </c>
       <c r="H9" s="75" t="s">
         <v>180</v>
@@ -4817,49 +5140,47 @@
       <c r="K9" s="75"/>
       <c r="L9" s="75"/>
       <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
       <c r="P9" s="75"/>
       <c r="Q9" s="75"/>
       <c r="R9" s="75"/>
       <c r="S9" s="54"/>
       <c r="T9" s="74"/>
-      <c r="V9" s="106"/>
+      <c r="V9" s="109"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B10" s="67"/>
       <c r="C10" s="52"/>
-      <c r="D10" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="E10" s="99" t="s">
-        <v>428</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>430</v>
-      </c>
-      <c r="G10" s="99" t="s">
-        <v>432</v>
-      </c>
-      <c r="H10" s="99" t="s">
-        <v>241</v>
-      </c>
-      <c r="I10" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="J10" s="99" t="s">
-        <v>263</v>
-      </c>
-      <c r="K10" s="99"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="99"/>
-      <c r="N10" s="99"/>
-      <c r="O10" s="99"/>
-      <c r="P10" s="99"/>
-      <c r="Q10" s="99"/>
-      <c r="R10" s="99"/>
+      <c r="D10" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="120" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="120" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10" s="120" t="s">
+        <v>427</v>
+      </c>
+      <c r="H10" s="120" t="s">
+        <v>240</v>
+      </c>
+      <c r="I10" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="J10" s="120" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="120"/>
+      <c r="N10" s="120"/>
+      <c r="O10" s="120"/>
+      <c r="P10" s="120"/>
+      <c r="Q10" s="120"/>
+      <c r="R10" s="120"/>
       <c r="S10" s="58"/>
-      <c r="V10" s="106"/>
+      <c r="V10" s="109"/>
     </row>
     <row r="11" spans="2:22" s="88" customFormat="1" ht="60" customHeight="1">
       <c r="B11" s="85"/>
@@ -4868,19 +5189,19 @@
         <v>209</v>
       </c>
       <c r="E11" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="F11" s="83" t="s">
+        <v>362</v>
+      </c>
+      <c r="G11" s="83" t="s">
         <v>363</v>
       </c>
-      <c r="F11" s="83" t="s">
+      <c r="H11" s="83" t="s">
         <v>364</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="I11" s="83" t="s">
         <v>365</v>
-      </c>
-      <c r="H11" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="I11" s="83" t="s">
-        <v>367</v>
       </c>
       <c r="J11" s="83" t="s">
         <v>211</v>
@@ -4896,68 +5217,68 @@
       </c>
       <c r="N11" s="87"/>
       <c r="O11" s="87" t="s">
+        <v>366</v>
+      </c>
+      <c r="P11" s="87" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q11" s="87" t="s">
+        <v>221</v>
+      </c>
+      <c r="R11" s="87" t="s">
         <v>368</v>
       </c>
-      <c r="P11" s="87" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q11" s="87" t="s">
-        <v>222</v>
-      </c>
-      <c r="R11" s="87" t="s">
-        <v>370</v>
-      </c>
       <c r="S11" s="57"/>
-      <c r="V11" s="106"/>
+      <c r="V11" s="109"/>
     </row>
     <row r="12" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B12" s="65"/>
       <c r="C12" s="52"/>
       <c r="D12" s="98" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E12" s="98" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="F12" s="98" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="G12" s="98" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H12" s="98" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="I12" s="98" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="J12" s="98" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="K12" s="98" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="L12" s="98" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M12" s="98" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="N12" s="98"/>
       <c r="O12" s="98" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="P12" s="98" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="Q12" s="98" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="R12" s="98" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="S12" s="53"/>
-      <c r="V12" s="106"/>
+      <c r="V12" s="109"/>
     </row>
     <row r="13" spans="2:22" s="1" customFormat="1" ht="80.099999999999994" customHeight="1">
       <c r="B13" s="66">
@@ -4969,19 +5290,19 @@
         <v>186</v>
       </c>
       <c r="E13" s="75" t="s">
+        <v>293</v>
+      </c>
+      <c r="F13" s="75" t="s">
+        <v>294</v>
+      </c>
+      <c r="G13" s="75" t="s">
         <v>295</v>
       </c>
-      <c r="F13" s="75" t="s">
+      <c r="H13" s="75" t="s">
         <v>296</v>
       </c>
-      <c r="G13" s="75" t="s">
+      <c r="I13" s="75" t="s">
         <v>297</v>
-      </c>
-      <c r="H13" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="I13" s="75" t="s">
-        <v>299</v>
       </c>
       <c r="J13" s="75" t="s">
         <v>188</v>
@@ -4999,65 +5320,65 @@
         <v>168</v>
       </c>
       <c r="O13" s="75" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="P13" s="75" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="Q13" s="75" t="s">
         <v>199</v>
       </c>
       <c r="R13" s="75" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="S13" s="54"/>
-      <c r="V13" s="107"/>
+      <c r="V13" s="110"/>
     </row>
     <row r="14" spans="2:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B14" s="67"/>
       <c r="C14" s="52"/>
-      <c r="D14" s="99" t="s">
-        <v>251</v>
-      </c>
-      <c r="E14" s="99" t="s">
-        <v>434</v>
-      </c>
-      <c r="F14" s="99" t="s">
-        <v>436</v>
-      </c>
-      <c r="G14" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="H14" s="99" t="s">
-        <v>440</v>
-      </c>
-      <c r="I14" s="99" t="s">
-        <v>442</v>
-      </c>
-      <c r="J14" s="99" t="s">
-        <v>255</v>
-      </c>
-      <c r="K14" s="99" t="s">
-        <v>259</v>
-      </c>
-      <c r="L14" s="99" t="s">
-        <v>261</v>
-      </c>
-      <c r="M14" s="99" t="s">
-        <v>273</v>
-      </c>
-      <c r="N14" s="99"/>
-      <c r="O14" s="99" t="s">
-        <v>444</v>
-      </c>
-      <c r="P14" s="99" t="s">
-        <v>446</v>
-      </c>
-      <c r="Q14" s="99" t="s">
-        <v>277</v>
-      </c>
-      <c r="R14" s="99" t="s">
-        <v>448</v>
+      <c r="D14" s="120" t="s">
+        <v>250</v>
+      </c>
+      <c r="E14" s="120" t="s">
+        <v>429</v>
+      </c>
+      <c r="F14" s="120" t="s">
+        <v>431</v>
+      </c>
+      <c r="G14" s="120" t="s">
+        <v>433</v>
+      </c>
+      <c r="H14" s="120" t="s">
+        <v>435</v>
+      </c>
+      <c r="I14" s="120" t="s">
+        <v>437</v>
+      </c>
+      <c r="J14" s="120" t="s">
+        <v>254</v>
+      </c>
+      <c r="K14" s="120" t="s">
+        <v>258</v>
+      </c>
+      <c r="L14" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="M14" s="120" t="s">
+        <v>272</v>
+      </c>
+      <c r="N14" s="120"/>
+      <c r="O14" s="120" t="s">
+        <v>439</v>
+      </c>
+      <c r="P14" s="120" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q14" s="120" t="s">
+        <v>275</v>
+      </c>
+      <c r="R14" s="120" t="s">
+        <v>443</v>
       </c>
       <c r="S14" s="58"/>
       <c r="V14" s="71"/>
@@ -5067,23 +5388,23 @@
       <c r="C15" s="89"/>
       <c r="D15" s="83"/>
       <c r="E15" s="83" t="s">
+        <v>369</v>
+      </c>
+      <c r="F15" s="83" t="s">
+        <v>370</v>
+      </c>
+      <c r="G15" s="83" t="s">
         <v>371</v>
-      </c>
-      <c r="F15" s="83" t="s">
-        <v>372</v>
-      </c>
-      <c r="G15" s="83" t="s">
-        <v>373</v>
       </c>
       <c r="H15" s="83" t="s">
         <v>203</v>
       </c>
       <c r="I15" s="83"/>
       <c r="J15" s="83" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="K15" s="83" t="s">
-        <v>375</v>
+        <v>535</v>
       </c>
       <c r="L15" s="83" t="s">
         <v>219</v>
@@ -5093,16 +5414,16 @@
       </c>
       <c r="N15" s="83"/>
       <c r="O15" s="83" t="s">
+        <v>373</v>
+      </c>
+      <c r="P15" s="83" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q15" s="83" t="s">
+        <v>375</v>
+      </c>
+      <c r="R15" s="83" t="s">
         <v>376</v>
-      </c>
-      <c r="P15" s="83" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q15" s="83" t="s">
-        <v>378</v>
-      </c>
-      <c r="R15" s="83" t="s">
-        <v>379</v>
       </c>
       <c r="S15" s="90"/>
       <c r="V15" s="92"/>
@@ -5112,42 +5433,42 @@
       <c r="C16" s="52"/>
       <c r="D16" s="98"/>
       <c r="E16" s="98" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="F16" s="98" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="G16" s="98" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="H16" s="98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I16" s="98"/>
       <c r="J16" s="98" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="K16" s="98" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L16" s="98" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M16" s="98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="N16" s="98"/>
       <c r="O16" s="98" t="s">
+        <v>451</v>
+      </c>
+      <c r="P16" s="98" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q16" s="98" t="s">
+        <v>455</v>
+      </c>
+      <c r="R16" s="98" t="s">
         <v>457</v>
-      </c>
-      <c r="P16" s="98" t="s">
-        <v>459</v>
-      </c>
-      <c r="Q16" s="98" t="s">
-        <v>461</v>
-      </c>
-      <c r="R16" s="98" t="s">
-        <v>463</v>
       </c>
       <c r="S16" s="53"/>
       <c r="V16" s="71"/>
@@ -5162,46 +5483,46 @@
         <v>168</v>
       </c>
       <c r="E17" s="75" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="75" t="s">
+        <v>302</v>
+      </c>
+      <c r="G17" s="75" t="s">
         <v>303</v>
       </c>
-      <c r="F17" s="75" t="s">
+      <c r="H17" s="75" t="s">
         <v>304</v>
-      </c>
-      <c r="G17" s="75" t="s">
-        <v>305</v>
-      </c>
-      <c r="H17" s="75" t="s">
-        <v>306</v>
       </c>
       <c r="I17" s="75" t="s">
         <v>168</v>
       </c>
       <c r="J17" s="75" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" s="75" t="s">
         <v>305</v>
-      </c>
-      <c r="K17" s="75" t="s">
-        <v>307</v>
       </c>
       <c r="L17" s="75" t="s">
         <v>196</v>
       </c>
       <c r="M17" s="75" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N17" s="75" t="s">
         <v>168</v>
       </c>
       <c r="O17" s="75" t="s">
+        <v>307</v>
+      </c>
+      <c r="P17" s="75" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q17" s="75" t="s">
         <v>309</v>
       </c>
-      <c r="P17" s="75" t="s">
+      <c r="R17" s="75" t="s">
         <v>310</v>
-      </c>
-      <c r="Q17" s="75" t="s">
-        <v>311</v>
-      </c>
-      <c r="R17" s="75" t="s">
-        <v>312</v>
       </c>
       <c r="S17" s="54"/>
       <c r="V17" s="71"/>
@@ -5209,44 +5530,44 @@
     <row r="18" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B18" s="67"/>
       <c r="C18" s="52"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99" t="s">
-        <v>450</v>
-      </c>
-      <c r="F18" s="99" t="s">
+      <c r="D18" s="120"/>
+      <c r="E18" s="120" t="s">
+        <v>445</v>
+      </c>
+      <c r="F18" s="120" t="s">
+        <v>447</v>
+      </c>
+      <c r="G18" s="120" t="s">
+        <v>449</v>
+      </c>
+      <c r="H18" s="120" t="s">
+        <v>238</v>
+      </c>
+      <c r="I18" s="120"/>
+      <c r="J18" s="120" t="s">
+        <v>449</v>
+      </c>
+      <c r="K18" s="120" t="s">
+        <v>536</v>
+      </c>
+      <c r="L18" s="120" t="s">
+        <v>270</v>
+      </c>
+      <c r="M18" s="120" t="s">
+        <v>242</v>
+      </c>
+      <c r="N18" s="120"/>
+      <c r="O18" s="120" t="s">
         <v>452</v>
       </c>
-      <c r="G18" s="99" t="s">
+      <c r="P18" s="120" t="s">
         <v>454</v>
       </c>
-      <c r="H18" s="99" t="s">
-        <v>239</v>
-      </c>
-      <c r="I18" s="99"/>
-      <c r="J18" s="99" t="s">
-        <v>454</v>
-      </c>
-      <c r="K18" s="99" t="s">
+      <c r="Q18" s="120" t="s">
         <v>456</v>
       </c>
-      <c r="L18" s="99" t="s">
-        <v>271</v>
-      </c>
-      <c r="M18" s="99" t="s">
-        <v>243</v>
-      </c>
-      <c r="N18" s="99"/>
-      <c r="O18" s="99" t="s">
+      <c r="R18" s="120" t="s">
         <v>458</v>
-      </c>
-      <c r="P18" s="99" t="s">
-        <v>460</v>
-      </c>
-      <c r="Q18" s="99" t="s">
-        <v>462</v>
-      </c>
-      <c r="R18" s="99" t="s">
-        <v>464</v>
       </c>
       <c r="S18" s="58"/>
       <c r="V18" s="71"/>
@@ -5256,24 +5577,24 @@
       <c r="C19" s="56"/>
       <c r="D19" s="83"/>
       <c r="E19" s="83" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F19" s="83" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="G19" s="83" t="s">
         <v>210</v>
       </c>
       <c r="H19" s="83" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="I19" s="83"/>
       <c r="J19" s="83"/>
       <c r="K19" s="83" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="L19" s="83" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M19" s="83"/>
       <c r="N19" s="84" t="s">
@@ -5287,7 +5608,7 @@
         <v>206</v>
       </c>
       <c r="R19" s="84" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="S19" s="57"/>
       <c r="V19" s="72"/>
@@ -5297,38 +5618,38 @@
       <c r="C20" s="52"/>
       <c r="D20" s="98"/>
       <c r="E20" s="98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F20" s="98" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="G20" s="98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H20" s="98" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="I20" s="98"/>
       <c r="J20" s="98"/>
       <c r="K20" s="98" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="L20" s="98" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="M20" s="98"/>
       <c r="N20" s="98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O20" s="98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P20" s="98"/>
       <c r="Q20" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="R20" s="98" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="S20" s="53"/>
       <c r="V20" s="71"/>
@@ -5346,28 +5667,28 @@
         <v>200</v>
       </c>
       <c r="F21" s="75" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G21" s="75" t="s">
         <v>187</v>
       </c>
       <c r="H21" s="75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="I21" s="75" t="s">
         <v>185</v>
       </c>
       <c r="J21" s="75" t="s">
+        <v>313</v>
+      </c>
+      <c r="K21" s="75" t="s">
+        <v>314</v>
+      </c>
+      <c r="L21" s="75" t="s">
         <v>315</v>
       </c>
-      <c r="K21" s="75" t="s">
+      <c r="M21" s="75" t="s">
         <v>316</v>
-      </c>
-      <c r="L21" s="75" t="s">
-        <v>317</v>
-      </c>
-      <c r="M21" s="75" t="s">
-        <v>318</v>
       </c>
       <c r="N21" s="75" t="s">
         <v>194</v>
@@ -5382,7 +5703,7 @@
         <v>182</v>
       </c>
       <c r="R21" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="S21" s="54"/>
       <c r="V21" s="71"/>
@@ -5390,40 +5711,40 @@
     <row r="22" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B22" s="67"/>
       <c r="C22" s="52"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99" t="s">
-        <v>279</v>
-      </c>
-      <c r="F22" s="99" t="s">
+      <c r="D22" s="120"/>
+      <c r="E22" s="120" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="120" t="s">
+        <v>460</v>
+      </c>
+      <c r="G22" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="H22" s="120" t="s">
+        <v>462</v>
+      </c>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
+      <c r="K22" s="120" t="s">
+        <v>464</v>
+      </c>
+      <c r="L22" s="120" t="s">
         <v>466</v>
       </c>
-      <c r="G22" s="99" t="s">
-        <v>253</v>
-      </c>
-      <c r="H22" s="99" t="s">
+      <c r="M22" s="120"/>
+      <c r="N22" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="O22" s="120" t="s">
+        <v>268</v>
+      </c>
+      <c r="P22" s="120"/>
+      <c r="Q22" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="R22" s="120" t="s">
         <v>468</v>
-      </c>
-      <c r="I22" s="99"/>
-      <c r="J22" s="99"/>
-      <c r="K22" s="99" t="s">
-        <v>470</v>
-      </c>
-      <c r="L22" s="99" t="s">
-        <v>472</v>
-      </c>
-      <c r="M22" s="99"/>
-      <c r="N22" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="O22" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="P22" s="99"/>
-      <c r="Q22" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="R22" s="99" t="s">
-        <v>474</v>
       </c>
       <c r="S22" s="58"/>
       <c r="V22" s="71"/>
@@ -5432,41 +5753,41 @@
       <c r="B23" s="79"/>
       <c r="C23" s="89"/>
       <c r="D23" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="F23" s="83" t="s">
+        <v>384</v>
+      </c>
+      <c r="G23" s="83" t="s">
         <v>385</v>
       </c>
-      <c r="E23" s="83" t="s">
+      <c r="H23" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="I23" s="83" t="s">
         <v>386</v>
-      </c>
-      <c r="F23" s="83" t="s">
-        <v>387</v>
-      </c>
-      <c r="G23" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="H23" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="I23" s="83" t="s">
-        <v>389</v>
       </c>
       <c r="J23" s="83"/>
       <c r="K23" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="L23" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="M23" s="83" t="s">
+        <v>537</v>
+      </c>
+      <c r="N23" s="83" t="s">
         <v>385</v>
       </c>
-      <c r="L23" s="83" t="s">
+      <c r="O23" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="P23" s="83" t="s">
         <v>386</v>
-      </c>
-      <c r="M23" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="N23" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="O23" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="P23" s="83" t="s">
-        <v>389</v>
       </c>
       <c r="Q23" s="83"/>
       <c r="R23" s="83" t="s">
@@ -5479,45 +5800,45 @@
       <c r="B24" s="65"/>
       <c r="C24" s="52"/>
       <c r="D24" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E24" s="98" t="s">
+        <v>469</v>
+      </c>
+      <c r="F24" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="G24" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="H24" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="I24" s="98" t="s">
         <v>475</v>
-      </c>
-      <c r="F24" s="98" t="s">
-        <v>477</v>
-      </c>
-      <c r="G24" s="98" t="s">
-        <v>479</v>
-      </c>
-      <c r="H24" s="98" t="s">
-        <v>439</v>
-      </c>
-      <c r="I24" s="98" t="s">
-        <v>481</v>
       </c>
       <c r="J24" s="98"/>
       <c r="K24" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="L24" s="98" t="s">
+        <v>469</v>
+      </c>
+      <c r="M24" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="N24" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="O24" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="P24" s="98" t="s">
         <v>475</v>
-      </c>
-      <c r="M24" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="N24" s="98" t="s">
-        <v>479</v>
-      </c>
-      <c r="O24" s="98" t="s">
-        <v>439</v>
-      </c>
-      <c r="P24" s="98" t="s">
-        <v>481</v>
       </c>
       <c r="Q24" s="98"/>
       <c r="R24" s="98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S24" s="53"/>
       <c r="V24" s="71"/>
@@ -5529,43 +5850,43 @@
       </c>
       <c r="C25" s="52"/>
       <c r="D25" s="75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E25" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="F25" s="75" t="s">
+        <v>319</v>
+      </c>
+      <c r="G25" s="75" t="s">
         <v>320</v>
       </c>
-      <c r="F25" s="75" t="s">
+      <c r="H25" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="I25" s="75" t="s">
         <v>321</v>
-      </c>
-      <c r="G25" s="75" t="s">
-        <v>322</v>
-      </c>
-      <c r="H25" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="I25" s="75" t="s">
-        <v>323</v>
       </c>
       <c r="J25" s="75" t="s">
         <v>168</v>
       </c>
       <c r="K25" s="75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="L25" s="75" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M25" s="75" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="N25" s="75" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O25" s="75" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="P25" s="75" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="Q25" s="75" t="s">
         <v>193</v>
@@ -5581,46 +5902,46 @@
     <row r="26" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B26" s="67"/>
       <c r="C26" s="52"/>
-      <c r="D26" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="E26" s="99" t="s">
+      <c r="D26" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="E26" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="F26" s="120" t="s">
+        <v>472</v>
+      </c>
+      <c r="G26" s="120" t="s">
+        <v>474</v>
+      </c>
+      <c r="H26" s="120" t="s">
+        <v>435</v>
+      </c>
+      <c r="I26" s="120" t="s">
         <v>476</v>
       </c>
-      <c r="F26" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="G26" s="99" t="s">
-        <v>480</v>
-      </c>
-      <c r="H26" s="99" t="s">
-        <v>440</v>
-      </c>
-      <c r="I26" s="99" t="s">
-        <v>482</v>
-      </c>
-      <c r="J26" s="99"/>
-      <c r="K26" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="L26" s="99" t="s">
+      <c r="J26" s="120"/>
+      <c r="K26" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="L26" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="M26" s="120" t="s">
+        <v>538</v>
+      </c>
+      <c r="N26" s="120" t="s">
+        <v>474</v>
+      </c>
+      <c r="O26" s="120" t="s">
+        <v>435</v>
+      </c>
+      <c r="P26" s="120" t="s">
         <v>476</v>
       </c>
-      <c r="M26" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="N26" s="99" t="s">
-        <v>480</v>
-      </c>
-      <c r="O26" s="99" t="s">
-        <v>440</v>
-      </c>
-      <c r="P26" s="99" t="s">
-        <v>482</v>
-      </c>
-      <c r="Q26" s="99"/>
-      <c r="R26" s="99" t="s">
-        <v>267</v>
+      <c r="Q26" s="120"/>
+      <c r="R26" s="120" t="s">
+        <v>266</v>
       </c>
       <c r="S26" s="58"/>
       <c r="V26" s="71"/>
@@ -5633,36 +5954,36 @@
       </c>
       <c r="E27" s="83"/>
       <c r="F27" s="83" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="G27" s="83" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="H27" s="83" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="I27" s="83"/>
       <c r="J27" s="83" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="K27" s="83" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="L27" s="83" t="s">
         <v>216</v>
       </c>
       <c r="M27" s="83"/>
       <c r="N27" s="83" t="s">
+        <v>390</v>
+      </c>
+      <c r="O27" s="83" t="s">
+        <v>391</v>
+      </c>
+      <c r="P27" s="83" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q27" s="83" t="s">
         <v>393</v>
-      </c>
-      <c r="O27" s="83" t="s">
-        <v>394</v>
-      </c>
-      <c r="P27" s="83" t="s">
-        <v>395</v>
-      </c>
-      <c r="Q27" s="83" t="s">
-        <v>396</v>
       </c>
       <c r="R27" s="83" t="s">
         <v>202</v>
@@ -5676,43 +5997,43 @@
       <c r="B28" s="65"/>
       <c r="C28" s="1"/>
       <c r="D28" s="98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E28" s="98"/>
       <c r="F28" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G28" s="98" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="H28" s="98" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="I28" s="98"/>
       <c r="J28" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="K28" s="98" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="L28" s="98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M28" s="98"/>
       <c r="N28" s="98" t="s">
+        <v>483</v>
+      </c>
+      <c r="O28" s="98" t="s">
+        <v>485</v>
+      </c>
+      <c r="P28" s="98" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q28" s="98" t="s">
         <v>489</v>
       </c>
-      <c r="O28" s="98" t="s">
-        <v>491</v>
-      </c>
-      <c r="P28" s="98" t="s">
-        <v>493</v>
-      </c>
-      <c r="Q28" s="98" t="s">
-        <v>495</v>
-      </c>
       <c r="R28" s="98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S28" s="53"/>
       <c r="T28" s="1"/>
@@ -5727,25 +6048,25 @@
         <v>195</v>
       </c>
       <c r="E29" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F29" s="75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G29" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="H29" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="I29" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="J29" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="K29" s="75" t="s">
         <v>327</v>
-      </c>
-      <c r="I29" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="J29" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="K29" s="75" t="s">
-        <v>329</v>
       </c>
       <c r="L29" s="75" t="s">
         <v>192</v>
@@ -5754,16 +6075,16 @@
         <v>168</v>
       </c>
       <c r="N29" s="75" t="s">
+        <v>328</v>
+      </c>
+      <c r="O29" s="75" t="s">
+        <v>329</v>
+      </c>
+      <c r="P29" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="O29" s="75" t="s">
+      <c r="Q29" s="75" t="s">
         <v>331</v>
-      </c>
-      <c r="P29" s="75" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q29" s="75" t="s">
-        <v>333</v>
       </c>
       <c r="R29" s="75" t="s">
         <v>177</v>
@@ -5776,141 +6097,141 @@
     <row r="30" spans="1:22" s="1" customFormat="1" ht="36" customHeight="1">
       <c r="B30" s="69"/>
       <c r="C30" s="51"/>
-      <c r="D30" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="G30" s="99" t="s">
+      <c r="D30" s="120" t="s">
+        <v>268</v>
+      </c>
+      <c r="E30" s="120"/>
+      <c r="F30" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="G30" s="120" t="s">
+        <v>478</v>
+      </c>
+      <c r="H30" s="120" t="s">
+        <v>480</v>
+      </c>
+      <c r="I30" s="120"/>
+      <c r="J30" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="K30" s="120" t="s">
+        <v>482</v>
+      </c>
+      <c r="L30" s="120" t="s">
+        <v>264</v>
+      </c>
+      <c r="M30" s="120"/>
+      <c r="N30" s="120" t="s">
         <v>484</v>
       </c>
-      <c r="H30" s="99" t="s">
+      <c r="O30" s="120" t="s">
         <v>486</v>
       </c>
-      <c r="I30" s="99"/>
-      <c r="J30" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="K30" s="99" t="s">
+      <c r="P30" s="120" t="s">
         <v>488</v>
       </c>
-      <c r="L30" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="M30" s="99"/>
-      <c r="N30" s="99" t="s">
+      <c r="Q30" s="120" t="s">
         <v>490</v>
       </c>
-      <c r="O30" s="99" t="s">
-        <v>492</v>
-      </c>
-      <c r="P30" s="99" t="s">
-        <v>494</v>
-      </c>
-      <c r="Q30" s="99" t="s">
-        <v>496</v>
-      </c>
-      <c r="R30" s="99" t="s">
-        <v>235</v>
+      <c r="R30" s="120" t="s">
+        <v>234</v>
       </c>
       <c r="S30" s="55"/>
       <c r="V30" s="71"/>
     </row>
     <row r="31" spans="1:22" s="1" customFormat="1" ht="60" customHeight="1">
       <c r="A31" s="93"/>
-      <c r="B31" s="111"/>
-      <c r="C31" s="112"/>
+      <c r="B31" s="104"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="83" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E31" s="83" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F31" s="83" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="G31" s="83" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H31" s="83" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="I31" s="83" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J31" s="83"/>
       <c r="K31" s="83" t="s">
+        <v>398</v>
+      </c>
+      <c r="L31" s="83" t="s">
+        <v>399</v>
+      </c>
+      <c r="M31" s="83" t="s">
+        <v>400</v>
+      </c>
+      <c r="N31" s="87" t="s">
         <v>401</v>
       </c>
-      <c r="L31" s="83" t="s">
+      <c r="O31" s="106"/>
+      <c r="P31" s="87" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q31" s="87" t="s">
+        <v>399</v>
+      </c>
+      <c r="R31" s="87" t="s">
         <v>402</v>
-      </c>
-      <c r="M31" s="83" t="s">
-        <v>403</v>
-      </c>
-      <c r="N31" s="87" t="s">
-        <v>404</v>
-      </c>
-      <c r="O31" s="113"/>
-      <c r="P31" s="87" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q31" s="87" t="s">
-        <v>402</v>
-      </c>
-      <c r="R31" s="87" t="s">
-        <v>405</v>
       </c>
       <c r="S31" s="57"/>
       <c r="T31" s="88"/>
       <c r="U31" s="88"/>
-      <c r="V31" s="114"/>
+      <c r="V31" s="107"/>
     </row>
     <row r="32" spans="1:22" ht="36" customHeight="1">
       <c r="B32" s="65"/>
       <c r="C32" s="1"/>
       <c r="D32" s="98" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="E32" s="98" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F32" s="98" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="G32" s="98" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H32" s="98" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="I32" s="98" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J32" s="98"/>
       <c r="K32" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="L32" s="98" t="s">
+        <v>499</v>
+      </c>
+      <c r="M32" s="98" t="s">
+        <v>501</v>
+      </c>
+      <c r="N32" s="98" t="s">
         <v>503</v>
-      </c>
-      <c r="L32" s="98" t="s">
-        <v>505</v>
-      </c>
-      <c r="M32" s="98" t="s">
-        <v>507</v>
-      </c>
-      <c r="N32" s="98" t="s">
-        <v>509</v>
       </c>
       <c r="O32" s="98"/>
       <c r="P32" s="98" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="Q32" s="98" t="s">
+        <v>499</v>
+      </c>
+      <c r="R32" s="98" t="s">
         <v>505</v>
-      </c>
-      <c r="R32" s="98" t="s">
-        <v>511</v>
       </c>
       <c r="S32" s="53"/>
       <c r="T32" s="1"/>
@@ -5922,49 +6243,49 @@
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="F33" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="G33" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="H33" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="I33" s="75" t="s">
         <v>334</v>
-      </c>
-      <c r="E33" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="F33" s="75" t="s">
-        <v>334</v>
-      </c>
-      <c r="G33" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="H33" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="I33" s="75" t="s">
-        <v>336</v>
       </c>
       <c r="J33" s="75" t="s">
         <v>168</v>
       </c>
       <c r="K33" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="L33" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="M33" s="75" t="s">
         <v>337</v>
       </c>
-      <c r="L33" s="75" t="s">
+      <c r="N33" s="75" t="s">
         <v>338</v>
       </c>
-      <c r="M33" s="75" t="s">
+      <c r="O33" s="75" t="s">
         <v>339</v>
       </c>
-      <c r="N33" s="75" t="s">
+      <c r="P33" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q33" s="75" t="s">
+        <v>336</v>
+      </c>
+      <c r="R33" s="75" t="s">
         <v>340</v>
-      </c>
-      <c r="O33" s="75" t="s">
-        <v>341</v>
-      </c>
-      <c r="P33" s="75" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q33" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="R33" s="75" t="s">
-        <v>342</v>
       </c>
       <c r="S33" s="54"/>
       <c r="T33" s="1"/>
@@ -5972,46 +6293,46 @@
     <row r="34" spans="2:22" ht="36" customHeight="1">
       <c r="B34" s="69"/>
       <c r="C34" s="1"/>
-      <c r="D34" s="99" t="s">
+      <c r="D34" s="120" t="s">
+        <v>492</v>
+      </c>
+      <c r="E34" s="120" t="s">
+        <v>494</v>
+      </c>
+      <c r="F34" s="120" t="s">
+        <v>492</v>
+      </c>
+      <c r="G34" s="120" t="s">
+        <v>435</v>
+      </c>
+      <c r="H34" s="120" t="s">
+        <v>437</v>
+      </c>
+      <c r="I34" s="120" t="s">
+        <v>496</v>
+      </c>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120" t="s">
         <v>498</v>
       </c>
-      <c r="E34" s="99" t="s">
+      <c r="L34" s="120" t="s">
         <v>500</v>
       </c>
-      <c r="F34" s="99" t="s">
+      <c r="M34" s="120" t="s">
+        <v>502</v>
+      </c>
+      <c r="N34" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="O34" s="120"/>
+      <c r="P34" s="120" t="s">
         <v>498</v>
       </c>
-      <c r="G34" s="99" t="s">
-        <v>440</v>
-      </c>
-      <c r="H34" s="99" t="s">
-        <v>442</v>
-      </c>
-      <c r="I34" s="99" t="s">
-        <v>502</v>
-      </c>
-      <c r="J34" s="99"/>
-      <c r="K34" s="99" t="s">
-        <v>504</v>
-      </c>
-      <c r="L34" s="99" t="s">
+      <c r="Q34" s="120" t="s">
+        <v>500</v>
+      </c>
+      <c r="R34" s="120" t="s">
         <v>506</v>
-      </c>
-      <c r="M34" s="99" t="s">
-        <v>508</v>
-      </c>
-      <c r="N34" s="99" t="s">
-        <v>510</v>
-      </c>
-      <c r="O34" s="99"/>
-      <c r="P34" s="99" t="s">
-        <v>504</v>
-      </c>
-      <c r="Q34" s="99" t="s">
-        <v>506</v>
-      </c>
-      <c r="R34" s="99" t="s">
-        <v>512</v>
       </c>
       <c r="S34" s="58"/>
       <c r="T34" s="1"/>
@@ -6020,13 +6341,13 @@
       <c r="B35" s="68"/>
       <c r="C35" s="56"/>
       <c r="D35" s="83" t="s">
-        <v>406</v>
+        <v>539</v>
       </c>
       <c r="E35" s="83" t="s">
         <v>212</v>
       </c>
       <c r="F35" s="83" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G35" s="83"/>
       <c r="H35" s="83"/>
@@ -6034,22 +6355,22 @@
         <v>210</v>
       </c>
       <c r="J35" s="83" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="K35" s="83"/>
       <c r="L35" s="83"/>
       <c r="M35" s="83" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N35" s="87" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="O35" s="77"/>
       <c r="P35" s="83" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="Q35" s="87" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="R35" s="77"/>
       <c r="S35" s="57"/>
@@ -6059,36 +6380,36 @@
       <c r="B36" s="65"/>
       <c r="C36" s="52"/>
       <c r="D36" s="98" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="E36" s="98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F36" s="98" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="G36" s="98"/>
       <c r="H36" s="98"/>
       <c r="I36" s="98" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J36" s="98" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="K36" s="98"/>
       <c r="L36" s="98"/>
       <c r="M36" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="N36" s="98" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="O36" s="98"/>
       <c r="P36" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="Q36" s="98" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="R36" s="98"/>
       <c r="S36" s="53"/>
@@ -6101,49 +6422,49 @@
       </c>
       <c r="C37" s="52"/>
       <c r="D37" s="75" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E37" s="75" t="s">
         <v>197</v>
       </c>
       <c r="F37" s="75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G37" s="75" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H37" s="75" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="I37" s="75" t="s">
         <v>187</v>
       </c>
       <c r="J37" s="75" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K37" s="75" t="s">
         <v>185</v>
       </c>
       <c r="L37" s="75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M37" s="75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N37" s="75" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="O37" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P37" s="75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="Q37" s="75" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="R37" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S37" s="54"/>
       <c r="T37" s="1"/>
@@ -6151,133 +6472,133 @@
     <row r="38" spans="2:22" ht="36" customHeight="1">
       <c r="B38" s="69"/>
       <c r="C38" s="52"/>
-      <c r="D38" s="99" t="s">
-        <v>514</v>
-      </c>
-      <c r="E38" s="99" t="s">
-        <v>257</v>
-      </c>
-      <c r="F38" s="99" t="s">
-        <v>502</v>
-      </c>
-      <c r="G38" s="99"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="99" t="s">
-        <v>253</v>
-      </c>
-      <c r="J38" s="99" t="s">
-        <v>468</v>
-      </c>
-      <c r="K38" s="99"/>
-      <c r="L38" s="99"/>
-      <c r="M38" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="N38" s="99" t="s">
-        <v>516</v>
-      </c>
-      <c r="O38" s="99"/>
-      <c r="P38" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q38" s="99" t="s">
-        <v>516</v>
-      </c>
-      <c r="R38" s="99"/>
+      <c r="D38" s="120" t="s">
+        <v>540</v>
+      </c>
+      <c r="E38" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="F38" s="120" t="s">
+        <v>496</v>
+      </c>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120" t="s">
+        <v>252</v>
+      </c>
+      <c r="J38" s="120" t="s">
+        <v>462</v>
+      </c>
+      <c r="K38" s="120"/>
+      <c r="L38" s="120"/>
+      <c r="M38" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="N38" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="O38" s="120"/>
+      <c r="P38" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="Q38" s="120" t="s">
+        <v>509</v>
+      </c>
+      <c r="R38" s="120"/>
       <c r="S38" s="58"/>
       <c r="T38" s="1"/>
     </row>
     <row r="39" spans="2:22" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="B39" s="111"/>
+      <c r="B39" s="104"/>
       <c r="C39" s="86"/>
       <c r="D39" s="83" t="s">
+        <v>363</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="F39" s="83" t="s">
         <v>365</v>
-      </c>
-      <c r="E39" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="F39" s="83" t="s">
-        <v>367</v>
       </c>
       <c r="G39" s="83"/>
       <c r="H39" s="83" t="s">
         <v>206</v>
       </c>
       <c r="I39" s="83" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J39" s="83" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="K39" s="83" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="L39" s="83"/>
       <c r="M39" s="83" t="s">
         <v>206</v>
       </c>
       <c r="N39" s="87" t="s">
+        <v>381</v>
+      </c>
+      <c r="O39" s="87" t="s">
+        <v>382</v>
+      </c>
+      <c r="P39" s="87" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q39" s="87" t="s">
         <v>384</v>
       </c>
-      <c r="O39" s="87" t="s">
+      <c r="R39" s="87" t="s">
         <v>385</v>
-      </c>
-      <c r="P39" s="87" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q39" s="87" t="s">
-        <v>387</v>
-      </c>
-      <c r="R39" s="87" t="s">
-        <v>388</v>
       </c>
       <c r="S39" s="57"/>
       <c r="T39" s="88"/>
-      <c r="V39" s="114"/>
+      <c r="V39" s="107"/>
     </row>
     <row r="40" spans="2:22" ht="36" customHeight="1">
       <c r="B40" s="65"/>
       <c r="C40" s="52"/>
       <c r="D40" s="98" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E40" s="98" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="F40" s="98" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G40" s="98"/>
       <c r="H40" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I40" s="98" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="J40" s="98" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="K40" s="98" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="L40" s="98"/>
       <c r="M40" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="N40" s="98" t="s">
+        <v>467</v>
+      </c>
+      <c r="O40" s="98" t="s">
+        <v>420</v>
+      </c>
+      <c r="P40" s="98" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q40" s="98" t="s">
+        <v>471</v>
+      </c>
+      <c r="R40" s="98" t="s">
         <v>473</v>
-      </c>
-      <c r="O40" s="98" t="s">
-        <v>425</v>
-      </c>
-      <c r="P40" s="98" t="s">
-        <v>475</v>
-      </c>
-      <c r="Q40" s="98" t="s">
-        <v>477</v>
-      </c>
-      <c r="R40" s="98" t="s">
-        <v>479</v>
       </c>
       <c r="S40" s="53"/>
       <c r="T40" s="1"/>
@@ -6289,28 +6610,28 @@
       </c>
       <c r="C41" s="52"/>
       <c r="D41" s="75" t="s">
+        <v>295</v>
+      </c>
+      <c r="E41" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="F41" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="E41" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="F41" s="75" t="s">
-        <v>299</v>
-      </c>
       <c r="G41" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H41" s="75" t="s">
         <v>182</v>
       </c>
       <c r="I41" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" s="75" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" s="75" t="s">
         <v>346</v>
-      </c>
-      <c r="J41" s="75" t="s">
-        <v>347</v>
-      </c>
-      <c r="K41" s="75" t="s">
-        <v>348</v>
       </c>
       <c r="L41" s="75" t="s">
         <v>168</v>
@@ -6319,19 +6640,19 @@
         <v>182</v>
       </c>
       <c r="N41" s="75" t="s">
+        <v>317</v>
+      </c>
+      <c r="O41" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="P41" s="75" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q41" s="75" t="s">
         <v>319</v>
       </c>
-      <c r="O41" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="P41" s="75" t="s">
+      <c r="R41" s="75" t="s">
         <v>320</v>
-      </c>
-      <c r="Q41" s="75" t="s">
-        <v>321</v>
-      </c>
-      <c r="R41" s="75" t="s">
-        <v>322</v>
       </c>
       <c r="S41" s="54"/>
       <c r="T41" s="1"/>
@@ -6339,46 +6660,46 @@
     <row r="42" spans="2:22" ht="36" customHeight="1">
       <c r="B42" s="69"/>
       <c r="C42" s="52"/>
-      <c r="D42" s="99" t="s">
-        <v>438</v>
-      </c>
-      <c r="E42" s="99" t="s">
-        <v>440</v>
-      </c>
-      <c r="F42" s="99" t="s">
-        <v>442</v>
-      </c>
-      <c r="G42" s="99"/>
-      <c r="H42" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="I42" s="99" t="s">
-        <v>518</v>
-      </c>
-      <c r="J42" s="99" t="s">
-        <v>520</v>
-      </c>
-      <c r="K42" s="99" t="s">
-        <v>522</v>
-      </c>
-      <c r="L42" s="99"/>
-      <c r="M42" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="N42" s="99" t="s">
+      <c r="D42" s="120" t="s">
+        <v>433</v>
+      </c>
+      <c r="E42" s="120" t="s">
+        <v>435</v>
+      </c>
+      <c r="F42" s="120" t="s">
+        <v>437</v>
+      </c>
+      <c r="G42" s="120"/>
+      <c r="H42" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="I42" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="J42" s="120" t="s">
+        <v>513</v>
+      </c>
+      <c r="K42" s="120" t="s">
+        <v>515</v>
+      </c>
+      <c r="L42" s="120"/>
+      <c r="M42" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="N42" s="120" t="s">
+        <v>468</v>
+      </c>
+      <c r="O42" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="P42" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q42" s="120" t="s">
+        <v>472</v>
+      </c>
+      <c r="R42" s="120" t="s">
         <v>474</v>
-      </c>
-      <c r="O42" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="P42" s="99" t="s">
-        <v>476</v>
-      </c>
-      <c r="Q42" s="99" t="s">
-        <v>478</v>
-      </c>
-      <c r="R42" s="99" t="s">
-        <v>480</v>
       </c>
       <c r="S42" s="58"/>
       <c r="T42" s="1"/>
@@ -6387,42 +6708,42 @@
       <c r="B43" s="94"/>
       <c r="C43" s="89"/>
       <c r="D43" s="83" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E43" s="83" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F43" s="83"/>
       <c r="G43" s="83" t="s">
+        <v>382</v>
+      </c>
+      <c r="H43" s="83" t="s">
+        <v>383</v>
+      </c>
+      <c r="I43" s="83" t="s">
+        <v>537</v>
+      </c>
+      <c r="J43" s="83" t="s">
         <v>385</v>
       </c>
-      <c r="H43" s="83" t="s">
+      <c r="K43" s="83" t="s">
+        <v>364</v>
+      </c>
+      <c r="L43" s="83" t="s">
         <v>386</v>
-      </c>
-      <c r="I43" s="83" t="s">
-        <v>221</v>
-      </c>
-      <c r="J43" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="K43" s="83" t="s">
-        <v>366</v>
-      </c>
-      <c r="L43" s="83" t="s">
-        <v>389</v>
       </c>
       <c r="M43" s="83"/>
       <c r="N43" s="83" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="O43" s="83" t="s">
         <v>201</v>
       </c>
       <c r="P43" s="83" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="Q43" s="83" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="R43" s="96"/>
       <c r="S43" s="90"/>
@@ -6433,42 +6754,42 @@
       <c r="B44" s="65"/>
       <c r="C44" s="52"/>
       <c r="D44" s="98" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="E44" s="98" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F44" s="98"/>
       <c r="G44" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="H44" s="98" t="s">
+        <v>469</v>
+      </c>
+      <c r="I44" s="98" t="s">
+        <v>273</v>
+      </c>
+      <c r="J44" s="98" t="s">
+        <v>473</v>
+      </c>
+      <c r="K44" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="L44" s="98" t="s">
         <v>475</v>
-      </c>
-      <c r="I44" s="98" t="s">
-        <v>274</v>
-      </c>
-      <c r="J44" s="98" t="s">
-        <v>479</v>
-      </c>
-      <c r="K44" s="98" t="s">
-        <v>439</v>
-      </c>
-      <c r="L44" s="98" t="s">
-        <v>481</v>
       </c>
       <c r="M44" s="98"/>
       <c r="N44" s="98" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="O44" s="98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P44" s="98" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="Q44" s="98" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="R44" s="98"/>
       <c r="S44" s="53"/>
@@ -6481,46 +6802,46 @@
       </c>
       <c r="C45" s="52"/>
       <c r="D45" s="75" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E45" s="75" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F45" s="75" t="s">
         <v>168</v>
       </c>
       <c r="G45" s="75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H45" s="75" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="I45" s="75" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J45" s="75" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K45" s="75" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="L45" s="75" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="M45" s="75" t="s">
         <v>193</v>
       </c>
       <c r="N45" s="75" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="O45" s="75" t="s">
+        <v>347</v>
+      </c>
+      <c r="P45" s="75" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q45" s="75" t="s">
         <v>349</v>
-      </c>
-      <c r="P45" s="75" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q45" s="75" t="s">
-        <v>351</v>
       </c>
       <c r="R45" s="75" t="s">
         <v>168</v>
@@ -6531,135 +6852,135 @@
     <row r="46" spans="2:22" ht="36" customHeight="1">
       <c r="B46" s="69"/>
       <c r="C46" s="52"/>
-      <c r="D46" s="99" t="s">
-        <v>440</v>
-      </c>
-      <c r="E46" s="99" t="s">
-        <v>482</v>
-      </c>
-      <c r="F46" s="99"/>
-      <c r="G46" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="H46" s="99" t="s">
+      <c r="D46" s="120" t="s">
+        <v>435</v>
+      </c>
+      <c r="E46" s="120" t="s">
         <v>476</v>
       </c>
-      <c r="I46" s="99" t="s">
-        <v>275</v>
-      </c>
-      <c r="J46" s="99" t="s">
-        <v>480</v>
-      </c>
-      <c r="K46" s="99" t="s">
-        <v>440</v>
-      </c>
-      <c r="L46" s="99" t="s">
-        <v>482</v>
-      </c>
-      <c r="M46" s="99"/>
-      <c r="N46" s="99" t="s">
-        <v>518</v>
-      </c>
-      <c r="O46" s="99" t="s">
-        <v>225</v>
-      </c>
-      <c r="P46" s="99" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q46" s="99" t="s">
-        <v>526</v>
-      </c>
-      <c r="R46" s="99"/>
+      <c r="F46" s="120"/>
+      <c r="G46" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="H46" s="120" t="s">
+        <v>470</v>
+      </c>
+      <c r="I46" s="120" t="s">
+        <v>538</v>
+      </c>
+      <c r="J46" s="120" t="s">
+        <v>474</v>
+      </c>
+      <c r="K46" s="120" t="s">
+        <v>435</v>
+      </c>
+      <c r="L46" s="120" t="s">
+        <v>476</v>
+      </c>
+      <c r="M46" s="120"/>
+      <c r="N46" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="O46" s="120" t="s">
+        <v>224</v>
+      </c>
+      <c r="P46" s="120" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q46" s="120" t="s">
+        <v>519</v>
+      </c>
+      <c r="R46" s="120"/>
       <c r="S46" s="53"/>
       <c r="T46" s="1"/>
     </row>
     <row r="47" spans="2:22" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="B47" s="111"/>
+      <c r="B47" s="104"/>
       <c r="C47" s="86"/>
       <c r="D47" s="83" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E47" s="83" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F47" s="83" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G47" s="83" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="H47" s="83"/>
       <c r="I47" s="83" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="J47" s="83" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="K47" s="83" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L47" s="83"/>
       <c r="M47" s="83" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N47" s="87" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="O47" s="87" t="s">
         <v>216</v>
       </c>
-      <c r="P47" s="113"/>
+      <c r="P47" s="106"/>
       <c r="Q47" s="87" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="R47" s="87" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="S47" s="57"/>
       <c r="T47" s="88"/>
-      <c r="V47" s="114"/>
+      <c r="V47" s="107"/>
     </row>
     <row r="48" spans="2:22" ht="36" customHeight="1">
       <c r="B48" s="65"/>
       <c r="C48" s="52"/>
       <c r="D48" s="98" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E48" s="98" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="F48" s="98" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="G48" s="98" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H48" s="98"/>
       <c r="I48" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="J48" s="98" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="K48" s="98" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="L48" s="98"/>
       <c r="M48" s="98" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="N48" s="98" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="O48" s="98" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P48" s="98"/>
       <c r="Q48" s="98" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="R48" s="98" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="S48" s="58"/>
       <c r="T48" s="1"/>
@@ -6671,37 +6992,37 @@
       </c>
       <c r="C49" s="52"/>
       <c r="D49" s="75" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E49" s="75" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F49" s="75" t="s">
+        <v>344</v>
+      </c>
+      <c r="G49" s="75" t="s">
         <v>346</v>
-      </c>
-      <c r="G49" s="75" t="s">
-        <v>348</v>
       </c>
       <c r="H49" s="75" t="s">
         <v>193</v>
       </c>
       <c r="I49" s="75" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J49" s="75" t="s">
+        <v>324</v>
+      </c>
+      <c r="K49" s="75" t="s">
+        <v>325</v>
+      </c>
+      <c r="L49" s="75" t="s">
         <v>326</v>
       </c>
-      <c r="K49" s="75" t="s">
+      <c r="M49" s="75" t="s">
+        <v>289</v>
+      </c>
+      <c r="N49" s="75" t="s">
         <v>327</v>
-      </c>
-      <c r="L49" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="M49" s="75" t="s">
-        <v>291</v>
-      </c>
-      <c r="N49" s="75" t="s">
-        <v>329</v>
       </c>
       <c r="O49" s="75" t="s">
         <v>192</v>
@@ -6710,89 +7031,89 @@
         <v>168</v>
       </c>
       <c r="Q49" s="75" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="R49" s="75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="S49" s="53"/>
       <c r="T49" s="1"/>
     </row>
     <row r="50" spans="2:22" ht="36" customHeight="1">
       <c r="B50" s="69"/>
-      <c r="D50" s="99" t="s">
-        <v>528</v>
-      </c>
-      <c r="E50" s="99" t="s">
-        <v>530</v>
-      </c>
-      <c r="F50" s="99" t="s">
-        <v>518</v>
-      </c>
-      <c r="G50" s="99" t="s">
-        <v>522</v>
-      </c>
-      <c r="H50" s="99"/>
-      <c r="I50" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="J50" s="99" t="s">
+      <c r="D50" s="120" t="s">
+        <v>521</v>
+      </c>
+      <c r="E50" s="120" t="s">
+        <v>523</v>
+      </c>
+      <c r="F50" s="120" t="s">
+        <v>511</v>
+      </c>
+      <c r="G50" s="120" t="s">
+        <v>515</v>
+      </c>
+      <c r="H50" s="120"/>
+      <c r="I50" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="J50" s="120" t="s">
+        <v>478</v>
+      </c>
+      <c r="K50" s="120" t="s">
+        <v>480</v>
+      </c>
+      <c r="L50" s="120"/>
+      <c r="M50" s="120" t="s">
+        <v>421</v>
+      </c>
+      <c r="N50" s="120" t="s">
+        <v>482</v>
+      </c>
+      <c r="O50" s="120" t="s">
+        <v>264</v>
+      </c>
+      <c r="P50" s="120"/>
+      <c r="Q50" s="120" t="s">
         <v>484</v>
       </c>
-      <c r="K50" s="99" t="s">
+      <c r="R50" s="120" t="s">
         <v>486</v>
       </c>
-      <c r="L50" s="99"/>
-      <c r="M50" s="99" t="s">
-        <v>426</v>
-      </c>
-      <c r="N50" s="99" t="s">
-        <v>488</v>
-      </c>
-      <c r="O50" s="99" t="s">
-        <v>265</v>
-      </c>
-      <c r="P50" s="99"/>
-      <c r="Q50" s="99" t="s">
-        <v>490</v>
-      </c>
-      <c r="R50" s="99" t="s">
-        <v>492</v>
-      </c>
     </row>
     <row r="51" spans="2:22" s="1" customFormat="1" ht="60" customHeight="1">
-      <c r="B51" s="111"/>
+      <c r="B51" s="104"/>
       <c r="C51" s="86"/>
       <c r="D51" s="83" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E51" s="83" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F51" s="83" t="s">
         <v>202</v>
       </c>
       <c r="G51" s="83" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H51" s="83" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="I51" s="83" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="J51" s="83" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="K51" s="83" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L51" s="83" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M51" s="83"/>
       <c r="N51" s="87" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="O51" s="87" t="s">
         <v>206</v>
@@ -6801,55 +7122,55 @@
         <v>207</v>
       </c>
       <c r="Q51" s="87" t="s">
-        <v>404</v>
-      </c>
-      <c r="R51" s="113"/>
+        <v>401</v>
+      </c>
+      <c r="R51" s="106"/>
       <c r="S51" s="57"/>
       <c r="T51" s="88"/>
-      <c r="V51" s="114"/>
+      <c r="V51" s="107"/>
     </row>
     <row r="52" spans="2:22" ht="36" customHeight="1">
       <c r="B52" s="65"/>
       <c r="C52" s="52"/>
       <c r="D52" s="98" t="s">
+        <v>487</v>
+      </c>
+      <c r="E52" s="98" t="s">
+        <v>489</v>
+      </c>
+      <c r="F52" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="G52" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="H52" s="98" t="s">
         <v>493</v>
       </c>
-      <c r="E52" s="98" t="s">
+      <c r="I52" s="98" t="s">
+        <v>491</v>
+      </c>
+      <c r="J52" s="98" t="s">
+        <v>434</v>
+      </c>
+      <c r="K52" s="98" t="s">
+        <v>436</v>
+      </c>
+      <c r="L52" s="98" t="s">
         <v>495</v>
-      </c>
-      <c r="F52" s="98" t="s">
-        <v>234</v>
-      </c>
-      <c r="G52" s="98" t="s">
-        <v>497</v>
-      </c>
-      <c r="H52" s="98" t="s">
-        <v>499</v>
-      </c>
-      <c r="I52" s="98" t="s">
-        <v>497</v>
-      </c>
-      <c r="J52" s="98" t="s">
-        <v>439</v>
-      </c>
-      <c r="K52" s="98" t="s">
-        <v>441</v>
-      </c>
-      <c r="L52" s="98" t="s">
-        <v>501</v>
       </c>
       <c r="M52" s="98"/>
       <c r="N52" s="98" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="O52" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P52" s="98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="Q52" s="98" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="R52" s="98"/>
       <c r="S52" s="58"/>
@@ -6862,37 +7183,37 @@
       </c>
       <c r="C53" s="52"/>
       <c r="D53" s="75" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E53" s="75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F53" s="75" t="s">
         <v>177</v>
       </c>
       <c r="G53" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="H53" s="75" t="s">
+        <v>333</v>
+      </c>
+      <c r="I53" s="75" t="s">
+        <v>332</v>
+      </c>
+      <c r="J53" s="75" t="s">
+        <v>296</v>
+      </c>
+      <c r="K53" s="75" t="s">
+        <v>297</v>
+      </c>
+      <c r="L53" s="75" t="s">
         <v>334</v>
-      </c>
-      <c r="H53" s="75" t="s">
-        <v>335</v>
-      </c>
-      <c r="I53" s="75" t="s">
-        <v>334</v>
-      </c>
-      <c r="J53" s="75" t="s">
-        <v>298</v>
-      </c>
-      <c r="K53" s="75" t="s">
-        <v>299</v>
-      </c>
-      <c r="L53" s="75" t="s">
-        <v>336</v>
       </c>
       <c r="M53" s="75" t="s">
         <v>168</v>
       </c>
       <c r="N53" s="75" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="O53" s="75" t="s">
         <v>182</v>
@@ -6901,7 +7222,7 @@
         <v>183</v>
       </c>
       <c r="Q53" s="75" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="R53" s="75" t="s">
         <v>168</v>
@@ -6911,47 +7232,47 @@
     </row>
     <row r="54" spans="2:22" ht="36" customHeight="1">
       <c r="B54" s="69"/>
-      <c r="D54" s="99" t="s">
+      <c r="D54" s="120" t="s">
+        <v>488</v>
+      </c>
+      <c r="E54" s="120" t="s">
+        <v>490</v>
+      </c>
+      <c r="F54" s="120" t="s">
+        <v>234</v>
+      </c>
+      <c r="G54" s="120" t="s">
+        <v>492</v>
+      </c>
+      <c r="H54" s="120" t="s">
         <v>494</v>
       </c>
-      <c r="E54" s="99" t="s">
+      <c r="I54" s="120" t="s">
+        <v>492</v>
+      </c>
+      <c r="J54" s="120" t="s">
+        <v>435</v>
+      </c>
+      <c r="K54" s="120" t="s">
+        <v>437</v>
+      </c>
+      <c r="L54" s="120" t="s">
         <v>496</v>
       </c>
-      <c r="F54" s="99" t="s">
-        <v>235</v>
-      </c>
-      <c r="G54" s="99" t="s">
-        <v>498</v>
-      </c>
-      <c r="H54" s="99" t="s">
-        <v>500</v>
-      </c>
-      <c r="I54" s="99" t="s">
-        <v>498</v>
-      </c>
-      <c r="J54" s="99" t="s">
-        <v>440</v>
-      </c>
-      <c r="K54" s="99" t="s">
-        <v>442</v>
-      </c>
-      <c r="L54" s="99" t="s">
+      <c r="M54" s="120"/>
+      <c r="N54" s="120" t="s">
         <v>502</v>
       </c>
-      <c r="M54" s="99"/>
-      <c r="N54" s="99" t="s">
-        <v>508</v>
-      </c>
-      <c r="O54" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="P54" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q54" s="99" t="s">
-        <v>510</v>
-      </c>
-      <c r="R54" s="99"/>
+      <c r="O54" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="P54" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q54" s="120" t="s">
+        <v>504</v>
+      </c>
+      <c r="R54" s="120"/>
     </row>
     <row r="55" spans="2:22" ht="60" customHeight="1">
       <c r="B55" s="68"/>
@@ -6963,25 +7284,25 @@
         <v>207</v>
       </c>
       <c r="F55" s="83" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G55" s="83" t="s">
-        <v>406</v>
+        <v>539</v>
       </c>
       <c r="H55" s="83" t="s">
         <v>212</v>
       </c>
       <c r="I55" s="83" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="J55" s="83"/>
       <c r="K55" s="83"/>
       <c r="L55" s="83"/>
       <c r="M55" s="83" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="N55" s="84" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="O55" s="77"/>
       <c r="P55" s="84" t="s">
@@ -6998,38 +7319,38 @@
       <c r="B56" s="65"/>
       <c r="C56" s="52"/>
       <c r="D56" s="98" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E56" s="98" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F56" s="98" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="G56" s="98" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H56" s="98" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I56" s="98" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="J56" s="98"/>
       <c r="K56" s="98"/>
       <c r="L56" s="98"/>
       <c r="M56" s="98" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="N56" s="98" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="O56" s="98"/>
       <c r="P56" s="98" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="Q56" s="98" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="R56" s="98"/>
       <c r="S56" s="58"/>
@@ -7048,34 +7369,34 @@
         <v>183</v>
       </c>
       <c r="F57" s="75" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G57" s="75" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="H57" s="75" t="s">
         <v>197</v>
       </c>
       <c r="I57" s="75" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J57" s="75" t="s">
         <v>193</v>
       </c>
       <c r="K57" s="75" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="L57" s="75" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="M57" s="75" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="N57" s="75" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="O57" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="P57" s="75" t="s">
         <v>194</v>
@@ -7084,60 +7405,60 @@
         <v>195</v>
       </c>
       <c r="R57" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="S57" s="53"/>
       <c r="T57" s="1"/>
     </row>
     <row r="58" spans="2:22" ht="36" customHeight="1">
       <c r="B58" s="69"/>
-      <c r="D58" s="99" t="s">
-        <v>245</v>
-      </c>
-      <c r="E58" s="99" t="s">
-        <v>247</v>
-      </c>
-      <c r="F58" s="99" t="s">
-        <v>512</v>
-      </c>
-      <c r="G58" s="99" t="s">
-        <v>514</v>
-      </c>
-      <c r="H58" s="99" t="s">
-        <v>257</v>
-      </c>
-      <c r="I58" s="99" t="s">
-        <v>502</v>
-      </c>
-      <c r="J58" s="99"/>
-      <c r="K58" s="99"/>
-      <c r="L58" s="99"/>
-      <c r="M58" s="99" t="s">
-        <v>530</v>
-      </c>
-      <c r="N58" s="99" t="s">
-        <v>532</v>
-      </c>
-      <c r="O58" s="99"/>
-      <c r="P58" s="99" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q58" s="99" t="s">
-        <v>269</v>
-      </c>
-      <c r="R58" s="99"/>
+      <c r="D58" s="120" t="s">
+        <v>244</v>
+      </c>
+      <c r="E58" s="120" t="s">
+        <v>246</v>
+      </c>
+      <c r="F58" s="120" t="s">
+        <v>506</v>
+      </c>
+      <c r="G58" s="120" t="s">
+        <v>540</v>
+      </c>
+      <c r="H58" s="120" t="s">
+        <v>256</v>
+      </c>
+      <c r="I58" s="120" t="s">
+        <v>496</v>
+      </c>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120" t="s">
+        <v>523</v>
+      </c>
+      <c r="N58" s="120" t="s">
+        <v>525</v>
+      </c>
+      <c r="O58" s="120"/>
+      <c r="P58" s="120" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q58" s="120" t="s">
+        <v>268</v>
+      </c>
+      <c r="R58" s="120"/>
     </row>
     <row r="59" spans="2:22" ht="60" customHeight="1">
       <c r="B59" s="68"/>
       <c r="C59" s="56"/>
       <c r="D59" s="83" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E59" s="83" t="s">
-        <v>418</v>
+        <v>541</v>
       </c>
       <c r="F59" s="83" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G59" s="83" t="s">
         <v>208</v>
@@ -7160,16 +7481,16 @@
       <c r="B60" s="65"/>
       <c r="C60" s="52"/>
       <c r="D60" s="98" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E60" s="98" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="F60" s="98" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G60" s="98" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H60" s="98"/>
       <c r="I60" s="98"/>
@@ -7192,13 +7513,13 @@
       </c>
       <c r="C61" s="52"/>
       <c r="D61" s="75" t="s">
+        <v>354</v>
+      </c>
+      <c r="E61" s="75" t="s">
+        <v>355</v>
+      </c>
+      <c r="F61" s="75" t="s">
         <v>356</v>
-      </c>
-      <c r="E61" s="75" t="s">
-        <v>357</v>
-      </c>
-      <c r="F61" s="75" t="s">
-        <v>358</v>
       </c>
       <c r="G61" s="75" t="s">
         <v>184</v>
@@ -7207,7 +7528,7 @@
         <v>193</v>
       </c>
       <c r="I61" s="75" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="J61" s="75"/>
       <c r="K61" s="75"/>
@@ -7223,29 +7544,29 @@
     </row>
     <row r="62" spans="2:22" ht="36" customHeight="1">
       <c r="B62" s="69"/>
-      <c r="D62" s="99" t="s">
-        <v>534</v>
-      </c>
-      <c r="E62" s="99" t="s">
-        <v>536</v>
-      </c>
-      <c r="F62" s="99" t="s">
-        <v>538</v>
-      </c>
-      <c r="G62" s="99" t="s">
-        <v>249</v>
-      </c>
-      <c r="H62" s="99"/>
-      <c r="I62" s="99"/>
-      <c r="J62" s="99"/>
-      <c r="K62" s="99"/>
-      <c r="L62" s="99"/>
-      <c r="M62" s="99"/>
-      <c r="N62" s="99"/>
-      <c r="O62" s="99"/>
-      <c r="P62" s="99"/>
-      <c r="Q62" s="99"/>
-      <c r="R62" s="99"/>
+      <c r="D62" s="120" t="s">
+        <v>527</v>
+      </c>
+      <c r="E62" s="120" t="s">
+        <v>542</v>
+      </c>
+      <c r="F62" s="120" t="s">
+        <v>530</v>
+      </c>
+      <c r="G62" s="120" t="s">
+        <v>248</v>
+      </c>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="120"/>
+      <c r="K62" s="120"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="120"/>
+      <c r="N62" s="120"/>
+      <c r="O62" s="120"/>
+      <c r="P62" s="120"/>
+      <c r="Q62" s="120"/>
+      <c r="R62" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -7253,122 +7574,106 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D3:R3">
-    <cfRule type="expression" dxfId="31" priority="175">
+    <cfRule type="expression" dxfId="25" priority="175">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="176">
+    <cfRule type="expression" dxfId="24" priority="176">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:R7">
-    <cfRule type="expression" dxfId="29" priority="31">
+    <cfRule type="expression" dxfId="23" priority="31">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="32">
+    <cfRule type="expression" dxfId="22" priority="32">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:R11">
-    <cfRule type="expression" dxfId="27" priority="29">
+    <cfRule type="expression" dxfId="21" priority="29">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="30">
+    <cfRule type="expression" dxfId="20" priority="30">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:R15">
-    <cfRule type="expression" dxfId="25" priority="27">
+    <cfRule type="expression" dxfId="19" priority="27">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="28">
+    <cfRule type="expression" dxfId="18" priority="28">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:R19">
-    <cfRule type="expression" dxfId="23" priority="25">
+    <cfRule type="expression" dxfId="17" priority="25">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:R23">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="15" priority="7">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="14" priority="8">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:R27">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="13" priority="21">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:R31">
-    <cfRule type="expression" dxfId="17" priority="19">
+    <cfRule type="expression" dxfId="11" priority="19">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35:R35">
-    <cfRule type="expression" dxfId="15" priority="17">
+    <cfRule type="expression" dxfId="9" priority="17">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:R39">
-    <cfRule type="expression" dxfId="13" priority="15">
+    <cfRule type="expression" dxfId="7" priority="15">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="16">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43:J43 M43:R43">
-    <cfRule type="expression" dxfId="11" priority="13">
+  <conditionalFormatting sqref="D43:R43">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D47:R47">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="3" priority="11">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51:R51 D55:R55 D59:R59">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>顯示注音輸入</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:E43">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>"'= TRUE(顯示注音輸入)"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K43:L43">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>顯示注音輸入</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2">
+    <cfRule type="expression" dxfId="0" priority="6">
       <formula>"'= TRUE(顯示注音輸入)"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7434,7 +7739,7 @@
       </c>
     </row>
     <row r="5" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B5" s="108" t="s">
+      <c r="B5" s="111" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -7452,7 +7757,7 @@
       <c r="G5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I5" s="108" t="s">
+      <c r="I5" s="111" t="s">
         <v>6</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -7477,7 +7782,7 @@
       <c r="R5" s="10"/>
     </row>
     <row r="6" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B6" s="109"/>
+      <c r="B6" s="112"/>
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
@@ -7497,7 +7802,7 @@
         <f>$B5 &amp; G$4</f>
         <v>陰入</v>
       </c>
-      <c r="I6" s="109"/>
+      <c r="I6" s="112"/>
       <c r="J6" s="11" t="s">
         <v>17</v>
       </c>
@@ -7519,7 +7824,7 @@
       <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B7" s="109"/>
+      <c r="B7" s="112"/>
       <c r="C7" s="15" t="s">
         <v>22</v>
       </c>
@@ -7535,7 +7840,7 @@
       <c r="G7" s="16">
         <v>30</v>
       </c>
-      <c r="I7" s="109"/>
+      <c r="I7" s="112"/>
       <c r="J7" s="15" t="s">
         <v>22</v>
       </c>
@@ -7557,7 +7862,7 @@
       <c r="Q7" s="14"/>
     </row>
     <row r="8" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B8" s="109"/>
+      <c r="B8" s="112"/>
       <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
@@ -7573,7 +7878,7 @@
       <c r="G8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I8" s="109"/>
+      <c r="I8" s="112"/>
       <c r="J8" s="18" t="s">
         <v>24</v>
       </c>
@@ -7595,7 +7900,7 @@
       <c r="Q8" s="14"/>
     </row>
     <row r="9" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B9" s="109"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="11" t="s">
         <v>33</v>
       </c>
@@ -7611,7 +7916,7 @@
       <c r="G9" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="109"/>
+      <c r="I9" s="112"/>
       <c r="J9" s="11" t="s">
         <v>33</v>
       </c>
@@ -7633,7 +7938,7 @@
       <c r="Q9" s="14"/>
     </row>
     <row r="10" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B10" s="110"/>
+      <c r="B10" s="113"/>
       <c r="C10" s="11" t="s">
         <v>38</v>
       </c>
@@ -7649,7 +7954,7 @@
       <c r="G10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="110"/>
+      <c r="I10" s="113"/>
       <c r="J10" s="11" t="s">
         <v>43</v>
       </c>
@@ -7672,7 +7977,7 @@
       <c r="R10" s="28"/>
     </row>
     <row r="11" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B11" s="108" t="s">
+      <c r="B11" s="111" t="s">
         <v>48</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -7690,7 +7995,7 @@
       <c r="G11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="108" t="s">
+      <c r="I11" s="111" t="s">
         <v>48</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -7714,7 +8019,7 @@
       <c r="Q11" s="14"/>
     </row>
     <row r="12" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B12" s="109"/>
+      <c r="B12" s="112"/>
       <c r="C12" s="11" t="s">
         <v>16</v>
       </c>
@@ -7734,7 +8039,7 @@
         <f>$B11 &amp; G$4</f>
         <v>陽入</v>
       </c>
-      <c r="I12" s="109"/>
+      <c r="I12" s="112"/>
       <c r="J12" s="11" t="s">
         <v>17</v>
       </c>
@@ -7754,7 +8059,7 @@
       <c r="Q12" s="14"/>
     </row>
     <row r="13" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B13" s="109"/>
+      <c r="B13" s="112"/>
       <c r="C13" s="15" t="s">
         <v>22</v>
       </c>
@@ -7768,7 +8073,7 @@
       <c r="G13" s="16">
         <v>50</v>
       </c>
-      <c r="I13" s="109"/>
+      <c r="I13" s="112"/>
       <c r="J13" s="15" t="s">
         <v>22</v>
       </c>
@@ -7788,7 +8093,7 @@
       <c r="Q13" s="14"/>
     </row>
     <row r="14" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B14" s="109"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7802,7 +8107,7 @@
       <c r="G14" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="I14" s="109"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="11" t="s">
         <v>24</v>
       </c>
@@ -7822,7 +8127,7 @@
       <c r="Q14" s="14"/>
     </row>
     <row r="15" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B15" s="109"/>
+      <c r="B15" s="112"/>
       <c r="C15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7836,7 +8141,7 @@
       <c r="G15" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I15" s="109"/>
+      <c r="I15" s="112"/>
       <c r="J15" s="11" t="s">
         <v>33</v>
       </c>
@@ -7856,7 +8161,7 @@
       <c r="Q15" s="14"/>
     </row>
     <row r="16" spans="2:18" ht="36.75" customHeight="1">
-      <c r="B16" s="110"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="11" t="s">
         <v>38</v>
       </c>
@@ -7870,7 +8175,7 @@
       <c r="G16" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="I16" s="110"/>
+      <c r="I16" s="113"/>
       <c r="J16" s="11" t="s">
         <v>43</v>
       </c>
@@ -7905,11 +8210,11 @@
     </row>
     <row r="19" spans="3:14" ht="42.75" customHeight="1">
       <c r="C19" s="36"/>
-      <c r="J19" s="101">
+      <c r="J19" s="100">
         <v>1</v>
       </c>
-      <c r="K19" s="102" t="s">
-        <v>281</v>
+      <c r="K19" s="101" t="s">
+        <v>279</v>
       </c>
       <c r="L19" s="37"/>
       <c r="M19" s="37"/>
@@ -7917,11 +8222,11 @@
     </row>
     <row r="20" spans="3:14" ht="42.75" customHeight="1">
       <c r="C20" s="36"/>
-      <c r="J20" s="101">
+      <c r="J20" s="100">
         <v>7</v>
       </c>
-      <c r="K20" s="102" t="s">
-        <v>285</v>
+      <c r="K20" s="101" t="s">
+        <v>283</v>
       </c>
       <c r="L20" s="37"/>
       <c r="M20" s="37"/>
@@ -7929,11 +8234,11 @@
     </row>
     <row r="21" spans="3:14" ht="42.75" customHeight="1">
       <c r="C21" s="36"/>
-      <c r="J21" s="101">
+      <c r="J21" s="100">
         <v>3</v>
       </c>
-      <c r="K21" s="102" t="s">
-        <v>286</v>
+      <c r="K21" s="101" t="s">
+        <v>284</v>
       </c>
       <c r="L21" s="37"/>
       <c r="M21" s="37"/>
@@ -7941,11 +8246,11 @@
     </row>
     <row r="22" spans="3:14" ht="42.75" customHeight="1">
       <c r="C22" s="36"/>
-      <c r="J22" s="101">
+      <c r="J22" s="100">
         <v>2</v>
       </c>
-      <c r="K22" s="103" t="s">
-        <v>280</v>
+      <c r="K22" s="102" t="s">
+        <v>278</v>
       </c>
       <c r="L22" s="37"/>
       <c r="M22" s="37"/>
@@ -7953,11 +8258,11 @@
     </row>
     <row r="23" spans="3:14" ht="42.75" customHeight="1">
       <c r="C23" s="36"/>
-      <c r="J23" s="101">
+      <c r="J23" s="100">
         <v>5</v>
       </c>
-      <c r="K23" s="103" t="s">
-        <v>282</v>
+      <c r="K23" s="102" t="s">
+        <v>280</v>
       </c>
       <c r="L23" s="37"/>
       <c r="M23" s="37"/>
@@ -7965,11 +8270,11 @@
     </row>
     <row r="24" spans="3:14" ht="42.75" customHeight="1">
       <c r="C24" s="36"/>
-      <c r="J24" s="101" t="s">
-        <v>287</v>
-      </c>
-      <c r="K24" s="104" t="s">
-        <v>287</v>
+      <c r="J24" s="100" t="s">
+        <v>285</v>
+      </c>
+      <c r="K24" s="103" t="s">
+        <v>285</v>
       </c>
       <c r="L24" s="37"/>
       <c r="M24" s="37"/>
@@ -7977,11 +8282,11 @@
     </row>
     <row r="25" spans="3:14" ht="42.75" customHeight="1">
       <c r="C25" s="36"/>
-      <c r="J25" s="101">
+      <c r="J25" s="100">
         <v>4</v>
       </c>
-      <c r="K25" s="102" t="s">
-        <v>288</v>
+      <c r="K25" s="101" t="s">
+        <v>286</v>
       </c>
       <c r="L25" s="37"/>
       <c r="M25" s="37"/>
@@ -7989,11 +8294,11 @@
     </row>
     <row r="26" spans="3:14" ht="42.75" customHeight="1">
       <c r="C26" s="36"/>
-      <c r="J26" s="101">
+      <c r="J26" s="100">
         <v>8</v>
       </c>
-      <c r="K26" s="102" t="s">
-        <v>289</v>
+      <c r="K26" s="101" t="s">
+        <v>287</v>
       </c>
       <c r="L26" s="37"/>
       <c r="M26" s="37"/>
@@ -8145,13 +8450,13 @@
         <v>81</v>
       </c>
       <c r="F4" s="44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G4" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H4" s="44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J4" s="40" t="s">
         <v>83</v>
@@ -8215,13 +8520,13 @@
         <v>93</v>
       </c>
       <c r="F8" s="44" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G8" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H8" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J8" s="40" t="s">
         <v>94</v>
@@ -8282,13 +8587,13 @@
         <v>104</v>
       </c>
       <c r="F12" s="44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G12" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H12" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J12" s="40" t="s">
         <v>105</v>
@@ -8349,13 +8654,13 @@
         <v>115</v>
       </c>
       <c r="F16" s="44" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G16" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H16" s="44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J16" s="40" t="s">
         <v>116</v>
@@ -8416,13 +8721,13 @@
         <v>127</v>
       </c>
       <c r="F20" s="44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G20" s="45" t="s">
         <v>82</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J20" s="40" t="s">
         <v>128</v>
